--- a/medicine/Pharmacie/Acépromazine/Acépromazine.xlsx
+++ b/medicine/Pharmacie/Acépromazine/Acépromazine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ac%C3%A9promazine</t>
+          <t>Acépromazine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'acépromazine, ou acétylpromazine, est un antagoniste compétitif central de la dopamine, utilisé comme tranquillisant en médecine vétérinaire, notamment en prémédication, chez les carnivores domestiques et le cheval. C'est une phénothiazine appartenant à la classe des neuroleptiques.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ac%C3%A9promazine</t>
+          <t>Acépromazine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acépromazine est un antidopaminergique : elle antagonise les récepteurs dopaminergiques du système nerveux central. Ses mécanismes d'action ne sont pas encore tout à fait connus.En outre, l'acépromazine antagonise les récepteurs sérotoninergiques, histaminergiques, α1-adrénergiques et cholinergiques.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ac%C3%A9promazine</t>
+          <t>Acépromazine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Utilisation / Posologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acépromazine est utilisée par voie orale, à la dose de 1,1  à   2,2 mg·kg-1 chez le chien et le chat, comme tranquillisant, i.e. en vue d'une contention chimique.
 L'acépromazine est largement utilisée par voie parentérale en pré-anesthésie. Chez le chien et le chat, on l'utilise à la dose de 10  à   50 μg·kg-1.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ac%C3%A9promazine</t>
+          <t>Acépromazine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,11 +594,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Données pharmacodynamiques
-L'acépromazine, par son action sur de nombreux récepteurs, induit une tranquillisation dose-dépendante. Elle est antiarythmique, antispasmodique et antiémétique.
+          <t>Données pharmacodynamiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'acépromazine, par son action sur de nombreux récepteurs, induit une tranquillisation dose-dépendante. Elle est antiarythmique, antispasmodique et antiémétique.
 En outre, elle abaisse le seuil épileptogène et est responsable d'une dépression centrale de la thermorégulation (dysthermie) et de la vasodilatation (hypotension).
-Données pharmacocinétiques
-L'acépromazine agit en 15 à 20 minutes par voie intraveineuse. Son effet dure entre 3 et 6 heures selon la dose.
 </t>
         </is>
       </c>
@@ -593,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ac%C3%A9promazine</t>
+          <t>Acépromazine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,12 +627,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Effets secondaires</t>
+          <t>Données pharmacologiques</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'acépromazine induit une dépression cardiorespiratoire ; elle agit surtout sur le système cardiovasculaire et provoque une bradycardie et une hypotension dose-dépendantes. Elle fausse les paramètres hématologiques en abaissant de près de 50 % l'hématocrite ainsi que la protéinémie.
+          <t>Données pharmacocinétiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'acépromazine agit en 15 à 20 minutes par voie intraveineuse. Son effet dure entre 3 et 6 heures selon la dose.
 </t>
         </is>
       </c>
@@ -624,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ac%C3%A9promazine</t>
+          <t>Acépromazine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,79 +664,155 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Effets secondaires</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'acépromazine induit une dépression cardiorespiratoire ; elle agit surtout sur le système cardiovasculaire et provoque une bradycardie et une hypotension dose-dépendantes. Elle fausse les paramètres hématologiques en abaissant de près de 50 % l'hématocrite ainsi que la protéinémie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Acépromazine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ac%C3%A9promazine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Contre-indications relatives
-Gériatrie, pédiatrie
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Contre-indications relatives</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Gériatrie, pédiatrie
 Races brachycéphales (injection d'acépromazine possible après induction de l'anesthésie)
-Coagulopathies, hémopathies
-Contre-indications absolues
-Insuffisance hépatique sévère
+Coagulopathies, hémopathies</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Acépromazine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ac%C3%A9promazine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Contre-indications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Contre-indications absolues</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Insuffisance hépatique sévère
 Neurochirurgie médullaire, convulsions, épilepsie
 Insuffisance cardiaque sévère
 Déshydratation</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ac%C3%A9promazine</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ac%C3%A9promazine</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Acépromazine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ac%C3%A9promazine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Toxicité / Surdosage</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La toxicité de l'acépromazine est assez faible : sa DL50 est de 61 mg kg−1 par voie intraveineuse (souris) et de 257 mg kg−1 par voie orale (souris).
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ac%C3%A9promazine</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ac%C3%A9promazine</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Acépromazine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ac%C3%A9promazine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Interactions médicamenteuses</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>L'acépromazine peut interagir avec :
 le paracétamolDCF (acétaminophèneDCI) : risque d'hypothermie ;
@@ -722,31 +823,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Ac%C3%A9promazine</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ac%C3%A9promazine</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Acépromazine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ac%C3%A9promazine</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Médicaments vétérinaires disponibles en France</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Calmivet
 Vétranquil 0,5 %
